--- a/Data Files/Input Validation/05. detail1/03. Typecode 7/Auto_Detail1_TC7_C1.xlsx
+++ b/Data Files/Input Validation/05. detail1/03. Typecode 7/Auto_Detail1_TC7_C1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7341F473-A196-4F49-8162-C57DC59AB724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264B572A-B1A4-40BA-9774-C2C2D2A4D731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="7305" windowHeight="13260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -243,7 +243,7 @@
     <t>I1dJN-B15kk82</t>
   </si>
   <si>
-    <t>2024-07-01</t>
+    <t>2024-08-16</t>
   </si>
 </sst>
 </file>
